--- a/src/main/resources/bill-template.xlsx
+++ b/src/main/resources/bill-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,9 +362,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,6 +376,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -418,14 +427,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,91 +747,91 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,15 +851,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/src/main/resources/bill-template.xlsx
+++ b/src/main/resources/bill-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">№ </t>
   </si>
@@ -53,12 +53,6 @@
     <t>Наименование поставщика</t>
   </si>
   <si>
-    <t>Адрес и телефон контактного центра</t>
-  </si>
-  <si>
-    <t>Лицевой счет у поставщика</t>
-  </si>
-  <si>
     <t>Квартира</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>Общая площадь, м</t>
-  </si>
-  <si>
-    <t>ФИО</t>
   </si>
   <si>
     <t>Коммунальные услуги</t>
@@ -167,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -347,11 +338,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -374,9 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -386,8 +435,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,24 +450,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,9 +465,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,122 +806,96 @@
     <col min="6" max="6" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="E2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="23" t="s">
+    <row r="5" spans="1:6" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="27"/>
-    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:F8"/>
+  <mergeCells count="7">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
